--- a/data/trans_camb/P16A15-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Clase-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A15-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.807778443708954</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.096418765210703</v>
+        <v>6.096418765210704</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.047306331987714</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2768738048021164</v>
+        <v>-0.3302303642612977</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5288982037886437</v>
+        <v>-0.7365639673124337</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.39002347954581</v>
+        <v>2.610166106500473</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.786756072330857</v>
+        <v>-2.396081495684135</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.727520487664309</v>
+        <v>-3.547842552865394</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.198509498303759</v>
+        <v>1.988082696299981</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.1495528058448977</v>
+        <v>-0.4740608038812675</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.984736945125685</v>
+        <v>-1.107576449439393</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.625164018226577</v>
+        <v>3.384997650833584</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.332229900806955</v>
+        <v>7.172547681046463</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.761534077219758</v>
+        <v>6.408778682457905</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.222382698858329</v>
+        <v>9.328792610850549</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.737673964767295</v>
+        <v>4.622942741939637</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.146072361161294</v>
+        <v>3.42508804336413</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.087873079732114</v>
+        <v>9.014888782414127</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.16964806502292</v>
+        <v>4.821521804581977</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.89616201376099</v>
+        <v>3.845962989326934</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.1259909428629</v>
+        <v>8.213697209618324</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.04936594413588211</v>
+        <v>-0.05183450343400064</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1083030278980919</v>
+        <v>-0.1169051807987318</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2814369475519802</v>
+        <v>0.3249304823810735</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4630073012836285</v>
+        <v>-0.4178657196826122</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6032550747198353</v>
+        <v>-0.5949223709749861</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3189940318730452</v>
+        <v>0.2447991066636524</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03561911480470413</v>
+        <v>-0.07905679613962409</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1605100057953523</v>
+        <v>-0.1756759335403391</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5279071909606947</v>
+        <v>0.5151416183389005</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.737286262632977</v>
+        <v>1.736482602892141</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.542271972642974</v>
+        <v>1.576268694447087</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.204395000350574</v>
+        <v>2.195892643919886</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.73731187870737</v>
+        <v>1.603786164679174</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.203273903411165</v>
+        <v>1.205153353150892</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.340212101522266</v>
+        <v>3.442520006681702</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.207407215008315</v>
+        <v>1.124946462121415</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.945037053111847</v>
+        <v>0.96861038583404</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.941768845112327</v>
+        <v>2.003305528691016</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>3.297537620924185</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>6.14366497740364</v>
+        <v>6.143664977403642</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.790352638106925</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2963025601676126</v>
+        <v>-0.3248411036481377</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.23698115229036</v>
+        <v>-0.9263211726448159</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.524552343428029</v>
+        <v>4.778382679079626</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6999529036437609</v>
+        <v>0.2777869940899632</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4669793438159431</v>
+        <v>0.5286620491754186</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.241705159195551</v>
+        <v>3.483624096258104</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.277846690990468</v>
+        <v>1.289714093505177</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3829890941537949</v>
+        <v>0.8387929188745977</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.324303604897944</v>
+        <v>4.953845920583895</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.266182672352294</v>
+        <v>7.641885526475341</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.35887491150815</v>
+        <v>6.250925551606193</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.2437599277772</v>
+        <v>12.44144123498871</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.490471390884124</v>
+        <v>7.081028786093597</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.771986472884644</v>
+        <v>7.184670500104523</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.918687600333627</v>
+        <v>9.192808569774234</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.499081572117032</v>
+        <v>6.418878780491988</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.363395292682607</v>
+        <v>5.674924848701782</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.909980104205156</v>
+        <v>9.692315014543322</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>1.097599421193341</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>2.044945016067513</v>
+        <v>2.044945016067514</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.9023514202874301</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.006605420777710504</v>
+        <v>-0.06692836716611102</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1725049026011378</v>
+        <v>-0.1273499677000009</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5816269406415963</v>
+        <v>0.588707696422262</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1180613750649016</v>
+        <v>-0.01669455843324974</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01990218637217922</v>
+        <v>0.0209713633036986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6735668574069653</v>
+        <v>0.5929326031754391</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2081994974363679</v>
+        <v>0.2369761893611308</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.03020144592691258</v>
+        <v>0.1241400570286078</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.9369993833621746</v>
+        <v>0.8975537242136886</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.243659753414756</v>
+        <v>1.96512733152846</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.736022248288042</v>
+        <v>1.675049679867983</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.246187498971475</v>
+        <v>3.364356004392874</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.768298954113352</v>
+        <v>3.667293112598482</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.666025499476314</v>
+        <v>3.575125474049705</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.545815137919023</v>
+        <v>5.041276541482437</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.005752938084424</v>
+        <v>1.954318556947511</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.595345243315442</v>
+        <v>1.701063162752509</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.10778437846548</v>
+        <v>3.044603147158454</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.748370716670264</v>
+        <v>2.831106099928318</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.440610229970556</v>
+        <v>2.525254013927679</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.24170785113987</v>
+        <v>5.358202096175745</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.638074731503917</v>
+        <v>-4.638432548874737</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.1770888199417887</v>
+        <v>-0.0495189899246273</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.34746314081688</v>
+        <v>4.341435119591544</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.072830176678889</v>
+        <v>2.046203423011544</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.028266025350666</v>
+        <v>2.718470659780654</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>6.129655845778635</v>
+        <v>6.186191951877361</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.348227754605563</v>
+        <v>9.534618110974325</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.419573100900607</v>
+        <v>9.269353725110783</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.65661539148688</v>
+        <v>12.46947486895376</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.219994973743469</v>
+        <v>5.987261458607316</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.47476924526504</v>
+        <v>13.6996144718966</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.5570360914781</v>
+        <v>15.05692634419536</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.53597924075704</v>
+        <v>7.988805592146647</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.066928141669157</v>
+        <v>8.851089919995308</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>12.21657844235938</v>
+        <v>12.13614950495316</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3567804264416838</v>
+        <v>0.3534526967369488</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.3369583679630448</v>
+        <v>0.3206639688404436</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.7171956765684906</v>
+        <v>0.7410845364575371</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4092012589972035</v>
+        <v>-0.4817971608779928</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1185596777334054</v>
+        <v>-0.0671863309604165</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4201219326276388</v>
+        <v>0.355801542627414</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2891097573911754</v>
+        <v>0.2599380183760239</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4327803444013258</v>
+        <v>0.3504087728801772</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.8067140406710079</v>
+        <v>0.8593936366966355</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.175457663217153</v>
+        <v>2.285310315317304</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.321317071312871</v>
+        <v>2.188571584042126</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.999400871913843</v>
+        <v>3.033954336352457</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.589194667655493</v>
+        <v>1.515472017413513</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.342889628577167</v>
+        <v>3.242673394990741</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.120890303377474</v>
+        <v>3.870289224361253</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.608671051402773</v>
+        <v>1.760197512738529</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.01697672942277</v>
+        <v>1.832568865292009</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.596239878687156</v>
+        <v>2.728089418078732</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>0.9019450373684318</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.852384500765221</v>
+        <v>4.852384500765219</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.517228352945492</v>
@@ -1306,7 +1306,7 @@
         <v>1.895554850264236</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.429916110807327</v>
+        <v>5.429916110807332</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.128747925249447</v>
+        <v>2.124279240467172</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4215795461101595</v>
+        <v>0.5794762250702549</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.604007316452499</v>
+        <v>3.875808803526534</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4598704626107334</v>
+        <v>-0.5782448276395344</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.803052428404028</v>
+        <v>-1.735241331156977</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.43622287355745</v>
+        <v>2.560364280223144</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.366119177957183</v>
+        <v>1.694477399531608</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1118169612644061</v>
+        <v>0.1834305826983194</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.703628897076977</v>
+        <v>3.722559222324543</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.280126847814394</v>
+        <v>6.914947100322761</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.109689916540605</v>
+        <v>5.455770523277546</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.353285889859457</v>
+        <v>8.396165109823405</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.004443495452411</v>
+        <v>4.928454000559007</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.141684492491317</v>
+        <v>3.133808798737451</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.169320500715244</v>
+        <v>6.898994189727341</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.185044947002252</v>
+        <v>5.328878777481126</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.412742029789554</v>
+        <v>3.606452733198885</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.239439656612517</v>
+        <v>7.122261221297786</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.1551460600811275</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8346720765701526</v>
+        <v>0.8346720765701524</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.5092899498019453</v>
@@ -1411,7 +1411,7 @@
         <v>0.2744738008635255</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.7862445727147515</v>
+        <v>0.786244572714752</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2309985242538408</v>
+        <v>0.2436629110433527</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.04907327175013051</v>
+        <v>0.06201932923445427</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4355402971765763</v>
+        <v>0.4528577314840324</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.07308252364390982</v>
+        <v>-0.08606181378605214</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2488324758099601</v>
+        <v>-0.2463262745781997</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3220394285749285</v>
+        <v>0.3329618552614918</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1772350306041201</v>
+        <v>0.2218113916531904</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.0154507900844233</v>
+        <v>0.02673250326376178</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4873204501316585</v>
+        <v>0.4597649603735726</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.091468058620664</v>
+        <v>1.029812428173771</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7824026839797369</v>
+        <v>0.8127391857658172</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.309476821180014</v>
+        <v>1.311502741978531</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.073277653452783</v>
+        <v>1.037663158478944</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6524149033919366</v>
+        <v>0.6569396204195381</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.588504398577612</v>
+        <v>1.507869111397357</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8368372514013566</v>
+        <v>0.8699893068094178</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.552148714350026</v>
+        <v>0.6010624759737323</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.181921311552568</v>
+        <v>1.169671725706787</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>6.700288885540401</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.095800629222389</v>
+        <v>6.095800629222388</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>7.342911231411771</v>
@@ -1511,7 +1511,7 @@
         <v>5.640980213840686</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>11.31808952414432</v>
+        <v>11.31808952414431</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>7.075100819365611</v>
@@ -1520,7 +1520,7 @@
         <v>5.881925764947892</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>9.11840218968185</v>
+        <v>9.118402189681852</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.78706164396624</v>
+        <v>3.42637787401751</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.556658696987804</v>
+        <v>3.727371125569923</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.894545973357394</v>
+        <v>2.718826806002751</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.669796080579979</v>
+        <v>3.651522360467471</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.206675596164231</v>
+        <v>1.921890934436057</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.008190202794264</v>
+        <v>8.368168552927264</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.591757057451726</v>
+        <v>4.399534511230661</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.529525459241433</v>
+        <v>3.514972033168177</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.871749780350267</v>
+        <v>6.887768606237882</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.25152736927762</v>
+        <v>10.57641549915724</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.04096800138445</v>
+        <v>9.895726129892438</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8.969189516374271</v>
+        <v>9.346633676470196</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.88671791841631</v>
+        <v>10.80649486272249</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.151703360323207</v>
+        <v>8.970572506311917</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.02814710538478</v>
+        <v>14.34758011602855</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.927622016417303</v>
+        <v>9.603786612721796</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.485848864792482</v>
+        <v>8.239443077981363</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>11.29355968818523</v>
+        <v>11.49281151524506</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.7193991971838698</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1.443405970002671</v>
+        <v>1.44340597000267</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.067692611446032</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.3918450751400705</v>
+        <v>0.5145448731693328</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.5266067544064363</v>
+        <v>0.5284508905122364</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4045948095937597</v>
+        <v>0.422245124400745</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3615753253313954</v>
+        <v>0.3549622555564969</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2321307769167903</v>
+        <v>0.1791750332825495</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7597443158987348</v>
+        <v>0.8279734576116975</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5689902119809125</v>
+        <v>0.5640572530050681</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.44641544723518</v>
+        <v>0.4416416474748173</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.8343259669125633</v>
+        <v>0.8594662373872352</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.21484400191278</v>
+        <v>3.251607138849871</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.219620138492857</v>
+        <v>3.39876749444163</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.776164964128319</v>
+        <v>3.079107377962757</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.742612426373328</v>
+        <v>1.715824808743669</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.542000960272713</v>
+        <v>1.430582878606153</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.317003186925428</v>
+        <v>2.372992577047697</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.818828475561987</v>
+        <v>1.780859260991489</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.589266663405514</v>
+        <v>1.507495226117379</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.126049937367119</v>
+        <v>2.119623906531544</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>4.476115781264476</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>5.195120337768612</v>
+        <v>5.195120337768606</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>5.117981029613975</v>
@@ -1734,7 +1734,7 @@
         <v>3.329248083074518</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>3.893505989305168</v>
+        <v>3.893505989305166</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.332318223796457</v>
+        <v>-1.307863899456733</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.655183603916459</v>
+        <v>-1.622326191809709</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.206249765126876</v>
+        <v>-1.093935172005593</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3.543839925467967</v>
+        <v>3.216586489765886</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.576066219062352</v>
+        <v>1.709831397080021</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2.372669263000352</v>
+        <v>2.650506361684987</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.68806894971983</v>
+        <v>2.677952648768699</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.9750510130900548</v>
+        <v>0.9992076476505789</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>1.579926158082104</v>
+        <v>1.755523590692476</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.944888516954768</v>
+        <v>2.898903348638917</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.540741393109201</v>
+        <v>1.579195992028894</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.253518001934045</v>
+        <v>2.313749635653235</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.225218793538446</v>
+        <v>9.352216533433296</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.438158446995264</v>
+        <v>7.757738830557207</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>8.067725693327015</v>
+        <v>8.145697846400415</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.609453120512925</v>
+        <v>7.311995492765727</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.762889309620007</v>
+        <v>5.700970080234762</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>6.152534248199444</v>
+        <v>6.160688060558615</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.3868606914632276</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4490026496893001</v>
+        <v>0.4490026496892996</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.5371878363344006</v>
@@ -1839,7 +1839,7 @@
         <v>0.3494408369274757</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.4086658481240265</v>
+        <v>0.4086658481240262</v>
       </c>
     </row>
     <row r="38">
@@ -1853,22 +1853,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>0.2801256279496354</v>
+        <v>0.2441209309645485</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1207333817354684</v>
+        <v>0.1375814536840068</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1842456635698417</v>
+        <v>0.202705673769642</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.252552842120461</v>
+        <v>0.2640831522523559</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.08632456065126078</v>
+        <v>0.0944594059206484</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1379739852910662</v>
+        <v>0.1607616454665289</v>
       </c>
     </row>
     <row r="39">
@@ -1882,22 +1882,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.8936091629439044</v>
+        <v>0.8891147175287573</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.7229746844541306</v>
+        <v>0.742038272107739</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7994881949214735</v>
+        <v>0.7950786103703866</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.8993243182050454</v>
+        <v>0.8647128994150886</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.653173845628029</v>
+        <v>0.659868538368263</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.7049108221660496</v>
+        <v>0.7133480895461667</v>
       </c>
     </row>
     <row r="40">
@@ -1927,7 +1927,7 @@
         <v>3.087288654449474</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>6.202511497759942</v>
+        <v>6.202511497759939</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>4.455855348856192</v>
@@ -1947,31 +1947,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>3.186279599518144</v>
+        <v>3.154410344161157</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.28943932437841</v>
+        <v>2.34275067478716</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5.030169006104148</v>
+        <v>4.974967340929955</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.938214660570049</v>
+        <v>3.00002254368653</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.611412809225819</v>
+        <v>1.810012760859651</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>4.800921768052793</v>
+        <v>4.85061923008176</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>3.387604955926349</v>
+        <v>3.520349904387569</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>2.34589784864749</v>
+        <v>2.354103678208159</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>5.343448866245919</v>
+        <v>5.343021320383291</v>
       </c>
     </row>
     <row r="42">
@@ -1982,31 +1982,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.809712870331981</v>
+        <v>5.972702820439322</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.905669329034911</v>
+        <v>4.931206543356124</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.700689291799588</v>
+        <v>7.63509849725224</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.928473136907413</v>
+        <v>5.868215812015228</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.402606245538984</v>
+        <v>4.51269655751464</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.303772350023944</v>
+        <v>7.414836363914241</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.478494935537028</v>
+        <v>5.413459973306631</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.335032168934789</v>
+        <v>4.284803364444702</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>7.166475495094936</v>
+        <v>7.309396345025738</v>
       </c>
     </row>
     <row r="43">
@@ -2032,7 +2032,7 @@
         <v>0.3909564212761903</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.7854502670470445</v>
+        <v>0.785450267047044</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.6488416262277963</v>
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.5070483867355867</v>
+        <v>0.4931873254214907</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.376546233732903</v>
+        <v>0.3702380940898937</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.7869264272617392</v>
+        <v>0.7828368076304097</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.3453700789552608</v>
+        <v>0.3494753246039867</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1856553263084158</v>
+        <v>0.2119289247522665</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5522208325184111</v>
+        <v>0.5574576443682999</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4523033541563968</v>
+        <v>0.4775608209112208</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.3119205098281081</v>
+        <v>0.3157664944561478</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.7128324523458202</v>
+        <v>0.7077183946783824</v>
       </c>
     </row>
     <row r="45">
@@ -2087,31 +2087,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.116881656139533</v>
+        <v>1.138778892428869</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.9607483201766284</v>
+        <v>0.9544435033939784</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.482439920722658</v>
+        <v>1.471196068960585</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8126761943650673</v>
+        <v>0.8034784771904065</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5999434431876294</v>
+        <v>0.6285047152732596</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.026998607829082</v>
+        <v>1.051017851176923</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.8400489432609054</v>
+        <v>0.8509567608208353</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.6670528429569687</v>
+        <v>0.6692438404950588</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.106841560898942</v>
+        <v>1.123868873529481</v>
       </c>
     </row>
     <row r="46">
